--- a/Stein Tünde/érettségi/info/2021infemelttav/kupon.xlsx
+++ b/Stein Tünde/érettségi/info/2021infemelttav/kupon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tatarefi-my.sharepoint.com/personal/stein_tunde_tata-refi_hu/Documents/erettsegi/inf2021emelttav/megoldasok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B70D3656-B840-477C-9614-AB6EEE539880}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BC1D9FE7-1E0D-4CDF-8B69-785C1CAB3146}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{B70D3656-B840-477C-9614-AB6EEE539880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F911B68-1381-4053-B416-559AED512776}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{DAF18C2C-C865-4B54-8776-E25BCEA05BBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{DAF18C2C-C865-4B54-8776-E25BCEA05BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -500,7 +511,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dddd"/>
+    <numFmt numFmtId="164" formatCode="dddd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -535,7 +546,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -589,6 +600,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F6A3-4040-ABE1-6A8D6C15F046}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -604,6 +620,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F6A3-4040-ABE1-6A8D6C15F046}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -619,6 +640,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F6A3-4040-ABE1-6A8D6C15F046}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -634,6 +660,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F6A3-4040-ABE1-6A8D6C15F046}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -649,6 +680,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F6A3-4040-ABE1-6A8D6C15F046}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -664,6 +700,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F6A3-4040-ABE1-6A8D6C15F046}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -681,8 +722,174 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-F6A3-4040-ABE1-6A8D6C15F046}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.14963503649635038"/>
+                      <c:h val="0.11785714285714285"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-F6A3-4040-ABE1-6A8D6C15F046}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.19343065693430658"/>
+                      <c:h val="0.11785714285714285"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F6A3-4040-ABE1-6A8D6C15F046}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.17153284671532848"/>
+                      <c:h val="0.12142857142857143"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F6A3-4040-ABE1-6A8D6C15F046}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.17883211678832117"/>
+                      <c:h val="0.17142857142857143"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-F6A3-4040-ABE1-6A8D6C15F046}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.16788321167883211"/>
+                      <c:h val="0.11785714285714285"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-F6A3-4040-ABE1-6A8D6C15F046}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.18978102189781021"/>
+                      <c:h val="0.11785714285714285"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-F6A3-4040-ABE1-6A8D6C15F046}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.18978102189781021"/>
+                      <c:h val="0.11785714285714285"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-F6A3-4040-ABE1-6A8D6C15F046}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -691,18 +898,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1">
+                <a:noAutofit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -715,9 +919,9 @@
             <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -1432,14 +1636,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>219074</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1468,10 +1672,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1509,7 +1717,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1615,7 +1823,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1757,7 +1965,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1768,7 +1976,7 @@
   <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6449,6 +6657,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x010100281053F158015242B22271C17F6BCE3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="c2adcd2eb9020fe4c097f73bdf37a16d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3f91ee45-0af5-46c2-a949-5eed606c8b84" xmlns:ns4="ceaddd86-71f7-4466-a948-5a8c94480907" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7221dacbce50fc0aeac6b6290090dbac" ns3:_="" ns4:_="">
     <xsd:import namespace="3f91ee45-0af5-46c2-a949-5eed606c8b84"/>
@@ -6675,15 +6892,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6693,6 +6901,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D5FBEC5-AB17-4DF1-A64A-E234D4C5E1D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{521A7423-82A4-46C9-8237-5CC04EF81AFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6707,14 +6923,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D5FBEC5-AB17-4DF1-A64A-E234D4C5E1D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
